--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2518,40 +2518,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.31640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.6484375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="54.9921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-claim-response.xlsx
+++ b/StructureDefinition-cdm-claim-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5974" uniqueCount="716">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,248 +272,252 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ClaimResponse.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ClaimResponse.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ClaimResponse.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ClaimResponse.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ClaimResponse.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>ClaimResponse.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>claimReceivedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-received-date}
+</t>
+  </si>
+  <si>
+    <t>Date the claim was received</t>
+  </si>
+  <si>
+    <t>claimStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
+</t>
+  </si>
+  <si>
+    <t>Custom code for the claim status</t>
+  </si>
+  <si>
+    <t>daysToProcess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/days-to-process}
+</t>
+  </si>
+  <si>
+    <t>Number of days between the date the claim was received and the date the claim was processed</t>
+  </si>
+  <si>
+    <t>ClaimResponse.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ClaimResponse.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for a claim response</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this claim response.</t>
+  </si>
+  <si>
+    <t>Allows claim responses to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClaimResponse.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ClaimResponse.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ClaimResponse.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ClaimResponse.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ClaimResponse.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ClaimResponse.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>ClaimResponse.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>claimReceivedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-received-date}
-</t>
-  </si>
-  <si>
-    <t>Date the claim was received</t>
-  </si>
-  <si>
-    <t>claimStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/claim-status}
-</t>
-  </si>
-  <si>
-    <t>Custom code for the claim status</t>
-  </si>
-  <si>
-    <t>daysToProcess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/days-to-process}
-</t>
-  </si>
-  <si>
-    <t>Number of days between the date the claim was received and the date the claim was processed</t>
-  </si>
-  <si>
-    <t>ClaimResponse.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ClaimResponse.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for a claim response</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this claim response.</t>
-  </si>
-  <si>
-    <t>Allows claim responses to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClaimResponse.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4097,13 +4101,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4154,7 +4158,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -4175,12 +4179,12 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4206,10 +4210,10 @@
         <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>149</v>
@@ -4253,7 +4257,7 @@
         <v>132</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
@@ -4262,7 +4266,7 @@
         <v>133</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -4283,12 +4287,12 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4314,16 +4318,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -4348,13 +4352,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -4372,7 +4376,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -4393,12 +4397,12 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4421,19 +4425,19 @@
         <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -4458,11 +4462,11 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -4480,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -4501,12 +4505,12 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4532,16 +4536,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -4554,7 +4558,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -4590,7 +4594,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -4611,12 +4615,12 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4639,16 +4643,16 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4662,7 +4666,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -4698,7 +4702,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -4719,12 +4723,12 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4747,13 +4751,13 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4804,7 +4808,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -4825,12 +4829,12 @@
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4853,16 +4857,16 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4912,7 +4916,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -4933,12 +4937,12 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4964,16 +4968,16 @@
         <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4998,13 +5002,13 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -5022,7 +5026,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>83</v>
@@ -5037,10 +5041,10 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -5048,7 +5052,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5071,19 +5075,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -5108,11 +5112,11 @@
         <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>76</v>
@@ -5130,7 +5134,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>83</v>
@@ -5148,7 +5152,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -5156,7 +5160,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5179,19 +5183,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -5216,31 +5220,31 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -5258,7 +5262,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -5266,7 +5270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5292,14 +5296,14 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -5324,13 +5328,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -5348,7 +5352,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>83</v>
@@ -5366,7 +5370,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -5374,7 +5378,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5397,17 +5401,17 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -5456,7 +5460,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>83</v>
@@ -5474,7 +5478,7 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -5482,7 +5486,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5505,17 +5509,17 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5564,7 +5568,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>83</v>
@@ -5579,10 +5583,10 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -5590,7 +5594,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5613,17 +5617,17 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5672,7 +5676,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>83</v>
@@ -5687,7 +5691,7 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -5698,7 +5702,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5721,16 +5725,16 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5780,7 +5784,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -5798,7 +5802,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5806,7 +5810,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5829,13 +5833,13 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5886,7 +5890,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5901,10 +5905,10 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5912,7 +5916,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5938,16 +5942,16 @@
         <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5972,13 +5976,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -5996,7 +6000,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>83</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6045,17 +6049,17 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -6104,7 +6108,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -6119,7 +6123,7 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -6130,7 +6134,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6153,19 +6157,19 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -6214,7 +6218,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -6240,7 +6244,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6263,17 +6267,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -6322,7 +6326,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -6348,7 +6352,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6371,17 +6375,17 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6406,13 +6410,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -6430,7 +6434,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -6456,7 +6460,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6479,17 +6483,17 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6538,7 +6542,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -6564,7 +6568,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6587,13 +6591,13 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6644,7 +6648,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6665,12 +6669,12 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6748,7 +6752,7 @@
         <v>133</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6774,10 +6778,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>76</v>
@@ -6799,13 +6803,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6856,7 +6860,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6882,10 +6886,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>76</v>
@@ -6907,13 +6911,13 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6964,7 +6968,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6990,10 +6994,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>76</v>
@@ -7015,13 +7019,13 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7072,7 +7076,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -7098,10 +7102,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>76</v>
@@ -7123,13 +7127,13 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7180,7 +7184,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -7206,10 +7210,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>76</v>
@@ -7231,13 +7235,13 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7288,7 +7292,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -7314,10 +7318,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>76</v>
@@ -7339,13 +7343,13 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7396,7 +7400,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -7422,11 +7426,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7448,10 +7452,10 @@
         <v>129</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>149</v>
@@ -7506,7 +7510,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7532,7 +7536,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7555,17 +7559,17 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7614,7 +7618,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>83</v>
@@ -7640,7 +7644,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7663,17 +7667,17 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7722,7 +7726,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7748,7 +7752,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7771,17 +7775,17 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7830,7 +7834,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7856,7 +7860,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7879,13 +7883,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7936,7 +7940,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7957,12 +7961,12 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8040,7 +8044,7 @@
         <v>133</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -8066,10 +8070,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>76</v>
@@ -8091,13 +8095,13 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8148,7 +8152,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -8174,10 +8178,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>76</v>
@@ -8199,13 +8203,13 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8256,7 +8260,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -8282,11 +8286,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8308,10 +8312,10 @@
         <v>129</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>149</v>
@@ -8366,7 +8370,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -8392,7 +8396,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8415,19 +8419,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8452,11 +8456,11 @@
         <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>76</v>
@@ -8474,7 +8478,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>83</v>
@@ -8500,7 +8504,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8523,19 +8527,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8560,13 +8564,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8584,7 +8588,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8610,7 +8614,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8633,19 +8637,19 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8694,7 +8698,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8720,7 +8724,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8743,19 +8747,19 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8804,7 +8808,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8830,7 +8834,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8853,17 +8857,17 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8912,7 +8916,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8938,7 +8942,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8961,13 +8965,13 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9018,7 +9022,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -9039,12 +9043,12 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9070,10 +9074,10 @@
         <v>129</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>149</v>
@@ -9126,7 +9130,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -9147,16 +9151,16 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9178,10 +9182,10 @@
         <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>149</v>
@@ -9236,7 +9240,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -9262,7 +9266,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9285,17 +9289,17 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -9344,7 +9348,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>83</v>
@@ -9370,7 +9374,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9393,17 +9397,17 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -9452,7 +9456,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9478,7 +9482,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9504,10 +9508,10 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9558,7 +9562,7 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>83</v>
@@ -9584,7 +9588,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9607,17 +9611,17 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9666,7 +9670,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9692,7 +9696,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9715,13 +9719,13 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9772,7 +9776,7 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9793,12 +9797,12 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9824,10 +9828,10 @@
         <v>129</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>149</v>
@@ -9880,7 +9884,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9901,16 +9905,16 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9932,10 +9936,10 @@
         <v>129</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>149</v>
@@ -9990,7 +9994,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -10016,7 +10020,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10039,17 +10043,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -10098,7 +10102,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>83</v>
@@ -10124,7 +10128,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10147,17 +10151,17 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -10206,7 +10210,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10232,7 +10236,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10258,10 +10262,10 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10312,7 +10316,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10338,7 +10342,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10361,17 +10365,17 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10420,7 +10424,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10446,7 +10450,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10469,13 +10473,13 @@
         <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10526,7 +10530,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10547,12 +10551,12 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10578,10 +10582,10 @@
         <v>129</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>149</v>
@@ -10634,7 +10638,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10655,16 +10659,16 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10686,10 +10690,10 @@
         <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>149</v>
@@ -10744,7 +10748,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10770,7 +10774,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10793,17 +10797,17 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
@@ -10852,7 +10856,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10878,7 +10882,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10901,17 +10905,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10960,7 +10964,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10986,7 +10990,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11009,17 +11013,17 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -11068,7 +11072,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -11094,7 +11098,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11117,17 +11121,17 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>76</v>
@@ -11176,7 +11180,7 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11194,7 +11198,7 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
@@ -11202,7 +11206,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11225,19 +11229,19 @@
         <v>76</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -11262,13 +11266,13 @@
         <v>76</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>76</v>
@@ -11286,7 +11290,7 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>83</v>
@@ -11312,7 +11316,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11335,19 +11339,19 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11372,13 +11376,13 @@
         <v>76</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>76</v>
@@ -11396,7 +11400,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -11417,12 +11421,12 @@
         <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11445,19 +11449,19 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>76</v>
@@ -11482,13 +11486,13 @@
         <v>76</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>76</v>
@@ -11506,7 +11510,7 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11527,12 +11531,12 @@
         <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11555,17 +11559,17 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>76</v>
@@ -11614,7 +11618,7 @@
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>74</v>
@@ -11632,15 +11636,15 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11663,17 +11667,17 @@
         <v>76</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>76</v>
@@ -11698,13 +11702,13 @@
         <v>76</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>76</v>
@@ -11722,7 +11726,7 @@
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -11740,15 +11744,15 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11771,17 +11775,17 @@
         <v>76</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>76</v>
@@ -11830,7 +11834,7 @@
         <v>76</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11851,12 +11855,12 @@
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11879,17 +11883,17 @@
         <v>76</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>76</v>
@@ -11938,7 +11942,7 @@
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11964,7 +11968,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11987,19 +11991,19 @@
         <v>76</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>76</v>
@@ -12048,7 +12052,7 @@
         <v>76</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -12074,7 +12078,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12097,19 +12101,19 @@
         <v>76</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>76</v>
@@ -12158,7 +12162,7 @@
         <v>76</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -12179,12 +12183,12 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12207,19 +12211,19 @@
         <v>76</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>76</v>
@@ -12244,13 +12248,13 @@
         <v>76</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>76</v>
@@ -12268,7 +12272,7 @@
         <v>76</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>
@@ -12294,7 +12298,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12317,17 +12321,17 @@
         <v>76</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>76</v>
@@ -12352,13 +12356,13 @@
         <v>76</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>76</v>
@@ -12376,7 +12380,7 @@
         <v>76</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>74</v>
@@ -12402,7 +12406,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12425,17 +12429,17 @@
         <v>76</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>76</v>
@@ -12484,7 +12488,7 @@
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>74</v>
@@ -12510,7 +12514,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12536,10 +12540,10 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12590,7 +12594,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>83</v>
@@ -12616,7 +12620,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12639,13 +12643,13 @@
         <v>76</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12696,7 +12700,7 @@
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>74</v>
@@ -12722,7 +12726,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12745,13 +12749,13 @@
         <v>76</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12802,7 +12806,7 @@
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>74</v>
@@ -12823,12 +12827,12 @@
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12854,10 +12858,10 @@
         <v>129</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>149</v>
@@ -12910,7 +12914,7 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>74</v>
@@ -12931,16 +12935,16 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12962,10 +12966,10 @@
         <v>129</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>149</v>
@@ -13020,7 +13024,7 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>74</v>
@@ -13046,7 +13050,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13069,19 +13073,19 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>76</v>
@@ -13106,13 +13110,13 @@
         <v>76</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>76</v>
@@ -13130,7 +13134,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>83</v>
@@ -13156,7 +13160,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13179,19 +13183,19 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>76</v>
@@ -13216,13 +13220,13 @@
         <v>76</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>76</v>
@@ -13240,7 +13244,7 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>74</v>
@@ -13261,12 +13265,12 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13289,17 +13293,17 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>76</v>
@@ -13348,7 +13352,7 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>74</v>
@@ -13369,12 +13373,12 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13397,17 +13401,17 @@
         <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>76</v>
@@ -13456,7 +13460,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>74</v>
@@ -13482,7 +13486,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13505,19 +13509,19 @@
         <v>76</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -13566,7 +13570,7 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>74</v>
@@ -13592,7 +13596,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13615,19 +13619,19 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -13676,7 +13680,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>74</v>
@@ -13697,12 +13701,12 @@
         <v>76</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13725,17 +13729,17 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -13784,7 +13788,7 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>74</v>
@@ -13810,7 +13814,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13836,10 +13840,10 @@
         <v>76</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13890,7 +13894,7 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>83</v>
@@ -13916,7 +13920,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13939,13 +13943,13 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13996,7 +14000,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>74</v>
@@ -14022,7 +14026,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14045,13 +14049,13 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14102,7 +14106,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>74</v>
@@ -14123,12 +14127,12 @@
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14154,10 +14158,10 @@
         <v>129</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>149</v>
@@ -14210,7 +14214,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>74</v>
@@ -14231,16 +14235,16 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14262,10 +14266,10 @@
         <v>129</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>149</v>
@@ -14320,7 +14324,7 @@
         <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>74</v>
@@ -14346,7 +14350,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14369,19 +14373,19 @@
         <v>76</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>76</v>
@@ -14406,13 +14410,13 @@
         <v>76</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>76</v>
@@ -14430,7 +14434,7 @@
         <v>76</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>83</v>
@@ -14456,7 +14460,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14479,19 +14483,19 @@
         <v>76</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>76</v>
@@ -14516,13 +14520,13 @@
         <v>76</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>76</v>
@@ -14540,7 +14544,7 @@
         <v>76</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>74</v>
@@ -14561,12 +14565,12 @@
         <v>76</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14589,17 +14593,17 @@
         <v>76</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>76</v>
@@ -14648,7 +14652,7 @@
         <v>76</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>74</v>
@@ -14669,12 +14673,12 @@
         <v>76</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14697,17 +14701,17 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>76</v>
@@ -14756,7 +14760,7 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>74</v>
@@ -14782,7 +14786,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14805,19 +14809,19 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
@@ -14866,7 +14870,7 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>74</v>
@@ -14892,7 +14896,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14915,19 +14919,19 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -14976,7 +14980,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>74</v>
@@ -14997,12 +15001,12 @@
         <v>76</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15025,17 +15029,17 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>76</v>
@@ -15084,7 +15088,7 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>74</v>
@@ -15110,7 +15114,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15136,10 +15140,10 @@
         <v>76</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15190,7 +15194,7 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>83</v>
@@ -15216,7 +15220,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15239,17 +15243,17 @@
         <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>76</v>
@@ -15298,7 +15302,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>74</v>
@@ -15324,7 +15328,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15347,13 +15351,13 @@
         <v>76</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15404,7 +15408,7 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>74</v>
@@ -15425,12 +15429,12 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15508,7 +15512,7 @@
         <v>133</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>74</v>
@@ -15534,10 +15538,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>76</v>
@@ -15559,13 +15563,13 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15616,7 +15620,7 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>74</v>
@@ -15642,11 +15646,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15668,10 +15672,10 @@
         <v>129</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>149</v>
@@ -15726,7 +15730,7 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>74</v>
@@ -15752,7 +15756,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15775,19 +15779,19 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>76</v>
@@ -15812,13 +15816,13 @@
         <v>76</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>76</v>
@@ -15836,7 +15840,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>83</v>
@@ -15862,7 +15866,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15885,19 +15889,19 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>76</v>
@@ -15922,13 +15926,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -15946,7 +15950,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>74</v>
@@ -15972,7 +15976,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15995,19 +15999,19 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16056,7 +16060,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>74</v>
@@ -16082,7 +16086,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16105,19 +16109,19 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
@@ -16166,7 +16170,7 @@
         <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>74</v>
@@ -16192,7 +16196,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16215,19 +16219,19 @@
         <v>84</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>76</v>
@@ -16276,7 +16280,7 @@
         <v>76</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>74</v>
@@ -16302,7 +16306,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16325,13 +16329,13 @@
         <v>76</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16382,7 +16386,7 @@
         <v>76</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>74</v>
@@ -16403,12 +16407,12 @@
         <v>76</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16434,10 +16438,10 @@
         <v>129</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>149</v>
@@ -16490,7 +16494,7 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>74</v>
@@ -16511,16 +16515,16 @@
         <v>76</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16542,10 +16546,10 @@
         <v>129</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>149</v>
@@ -16600,7 +16604,7 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>74</v>
@@ -16626,7 +16630,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16649,19 +16653,19 @@
         <v>84</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -16686,13 +16690,13 @@
         <v>76</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>76</v>
@@ -16710,7 +16714,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>83</v>
@@ -16736,7 +16740,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16759,17 +16763,17 @@
         <v>84</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>76</v>
@@ -16818,7 +16822,7 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>83</v>
@@ -16844,7 +16848,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16867,17 +16871,17 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -16926,7 +16930,7 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>74</v>
@@ -16952,7 +16956,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16975,13 +16979,13 @@
         <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17032,7 +17036,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>74</v>
@@ -17053,12 +17057,12 @@
         <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17136,7 +17140,7 @@
         <v>133</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>74</v>
@@ -17162,10 +17166,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>76</v>
@@ -17187,13 +17191,13 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -17244,7 +17248,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>74</v>
@@ -17270,10 +17274,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>76</v>
@@ -17295,13 +17299,13 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -17352,7 +17356,7 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>74</v>
@@ -17378,10 +17382,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>76</v>
@@ -17403,13 +17407,13 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17460,7 +17464,7 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>74</v>
@@ -17486,11 +17490,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17512,10 +17516,10 @@
         <v>129</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>149</v>
@@ -17570,7 +17574,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>74</v>
@@ -17596,7 +17600,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17619,17 +17623,17 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>76</v>
@@ -17654,13 +17658,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -17678,7 +17682,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>83</v>
@@ -17704,7 +17708,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17727,19 +17731,19 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -17788,7 +17792,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>74</v>
@@ -17814,7 +17818,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17837,17 +17841,17 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
@@ -17872,13 +17876,13 @@
         <v>76</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>76</v>
@@ -17896,7 +17900,7 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>74</v>
@@ -17922,7 +17926,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -17945,17 +17949,17 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>76</v>
@@ -18004,7 +18008,7 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>74</v>
@@ -18030,7 +18034,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18053,17 +18057,17 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
@@ -18112,7 +18116,7 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>83</v>
@@ -18138,7 +18142,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18164,16 +18168,16 @@
         <v>153</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -18222,7 +18226,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>74</v>
@@ -18248,7 +18252,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18271,19 +18275,19 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>76</v>
@@ -18308,13 +18312,13 @@
         <v>76</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>76</v>
@@ -18332,7 +18336,7 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>74</v>
@@ -18358,7 +18362,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18381,19 +18385,19 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18418,13 +18422,13 @@
         <v>76</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>76</v>
@@ -18442,7 +18446,7 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>74</v>
@@ -18468,7 +18472,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18491,19 +18495,19 @@
         <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>76</v>
@@ -18552,7 +18556,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>74</v>
@@ -18578,7 +18582,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18601,17 +18605,17 @@
         <v>76</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
@@ -18660,7 +18664,7 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>74</v>
@@ -18686,7 +18690,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -18709,13 +18713,13 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -18766,7 +18770,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>74</v>
@@ -18787,12 +18791,12 @@
         <v>76</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -18818,10 +18822,10 @@
         <v>129</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M151" t="s" s="2">
         <v>149</v>
@@ -18874,7 +18878,7 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>74</v>
@@ -18895,16 +18899,16 @@
         <v>76</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -18926,10 +18930,10 @@
         <v>129</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M152" t="s" s="2">
         <v>149</v>
@@ -18984,7 +18988,7 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>74</v>
@@ -19010,7 +19014,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19033,17 +19037,17 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>76</v>
@@ -19092,7 +19096,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>74</v>
@@ -19118,7 +19122,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19144,14 +19148,14 @@
         <v>105</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>76</v>
@@ -19176,13 +19180,13 @@
         <v>76</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -19200,7 +19204,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>74</v>
@@ -19226,7 +19230,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19249,17 +19253,17 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
@@ -19308,7 +19312,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>83</v>
@@ -19334,7 +19338,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19357,19 +19361,19 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
@@ -19418,7 +19422,7 @@
         <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>74</v>
@@ -19444,7 +19448,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19467,19 +19471,19 @@
         <v>76</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>76</v>
@@ -19528,7 +19532,7 @@
         <v>76</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>74</v>
@@ -19554,7 +19558,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19577,19 +19581,19 @@
         <v>76</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>76</v>
@@ -19638,7 +19642,7 @@
         <v>76</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>74</v>
@@ -19659,12 +19663,12 @@
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19687,13 +19691,13 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -19744,7 +19748,7 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>74</v>
@@ -19765,12 +19769,12 @@
         <v>76</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19796,10 +19800,10 @@
         <v>129</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M160" t="s" s="2">
         <v>149</v>
@@ -19852,7 +19856,7 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>74</v>
@@ -19873,16 +19877,16 @@
         <v>76</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -19904,10 +19908,10 @@
         <v>129</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>149</v>
@@ -19962,7 +19966,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>74</v>
@@ -19988,7 +19992,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20011,17 +20015,17 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>76</v>
@@ -20070,7 +20074,7 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>83</v>
@@ -20096,7 +20100,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20119,19 +20123,19 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20180,7 +20184,7 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>83</v>
@@ -20206,7 +20210,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20229,17 +20233,17 @@
         <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>76</v>
@@ -20288,7 +20292,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>83</v>
@@ -20314,7 +20318,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20337,17 +20341,17 @@
         <v>76</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20396,7 +20400,7 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>74</v>
@@ -20422,7 +20426,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20445,19 +20449,19 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -20506,7 +20510,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>74</v>
@@ -20532,7 +20536,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -20555,19 +20559,19 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -20616,7 +20620,7 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>74</v>
@@ -20642,7 +20646,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -20665,13 +20669,13 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -20722,7 +20726,7 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>74</v>
@@ -20743,12 +20747,12 @@
         <v>76</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -20774,10 +20778,10 @@
         <v>129</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M169" t="s" s="2">
         <v>149</v>
@@ -20830,7 +20834,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>74</v>
@@ -20851,16 +20855,16 @@
         <v>76</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -20882,10 +20886,10 @@
         <v>129</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>149</v>
@@ -20940,7 +20944,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>74</v>
@@ -20966,7 +20970,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -20989,17 +20993,17 @@
         <v>76</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>76</v>
@@ -21048,7 +21052,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>74</v>
@@ -21074,7 +21078,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21097,17 +21101,17 @@
         <v>76</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
@@ -21156,7 +21160,7 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>74</v>
@@ -21182,7 +21186,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21205,17 +21209,17 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>76</v>
@@ -21264,7 +21268,7 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>74</v>
@@ -21290,7 +21294,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21313,17 +21317,17 @@
         <v>76</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>76</v>
@@ -21348,13 +21352,13 @@
         <v>76</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -21372,7 +21376,7 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>83</v>
